--- a/ZeitManagement_Yildirim.xlsx
+++ b/ZeitManagement_Yildirim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necati\Desktop\Praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E491219F-F900-43E1-8D70-63D722C4086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2206B-14B9-446F-BA54-AD6B3E80EC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0BE513C9-2935-4E63-92BC-EE018EA525DC}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>Tag 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Github Repository erstellt und abgegeben</t>
   </si>
@@ -78,6 +75,66 @@
   </si>
   <si>
     <t>Prof. Pilger</t>
+  </si>
+  <si>
+    <t>Zeit (min)</t>
+  </si>
+  <si>
+    <t>Summe (min)</t>
+  </si>
+  <si>
+    <t>Alte Programme von mir angeschaut (bezüglich Cam Zugriff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alte Recherche-Links von mir angeschaut </t>
+  </si>
+  <si>
+    <t>Summe (h)</t>
+  </si>
+  <si>
+    <t>3h 20min</t>
+  </si>
+  <si>
+    <t>6h 5min</t>
+  </si>
+  <si>
+    <t>"Genuine Coder" Videos angeschaut</t>
+  </si>
+  <si>
+    <t>Netbeans Webcam Zugriff hergestellt</t>
+  </si>
+  <si>
+    <t>Libraries erstellt für das Programm (ohne Javadoc)</t>
+  </si>
+  <si>
+    <t>2h 30min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webcam Zugriff mit Panel herstellen </t>
+  </si>
+  <si>
+    <t>Youtube Video Tutorials für Webcam-Zugriff mit Panel</t>
+  </si>
+  <si>
+    <t>Kurzbericht erstellen und abgeben</t>
+  </si>
+  <si>
+    <t>Praktikumsbestätigung aktualiesieren und abgeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github importieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heutige Ergebniss abgegeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigenes Protokoll aktualisiert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netbeans mit Gui aktualisiert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3h 10min </t>
   </si>
 </sst>
 </file>
@@ -113,22 +170,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB1898-B161-4AE1-A6EE-A75197A126A8}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,156 +524,536 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44109</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>SUM(I5,I6,I7,I8,I9,I10,I11)</f>
+        <v>200</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44114</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="I15">
+        <v>165</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="J16">
+        <v>365</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44115</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="J21">
+        <v>150</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44116</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="H23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4">
-        <v>0.59375</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="I23">
+        <v>95</v>
+      </c>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G25" s="5">
         <v>0.65625</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4">
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G26" s="5">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G27" s="5">
         <v>0.67013888888888884</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4">
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5">
         <v>0.67013888888888884</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G28" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G29" s="5">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4">
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5">
         <v>0.68055555555555547</v>
       </c>
-      <c r="G9" s="4">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
+      <c r="G30" s="5">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>190</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="22">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B11:E11"/>
@@ -615,6 +1063,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZeitManagement_Yildirim.xlsx
+++ b/ZeitManagement_Yildirim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necati\Desktop\Praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2206B-14B9-446F-BA54-AD6B3E80EC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3811D0-05C7-4502-ACD0-DF08FEB1C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0BE513C9-2935-4E63-92BC-EE018EA525DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Github Repository erstellt und abgegeben</t>
   </si>
@@ -135,6 +135,39 @@
   </si>
   <si>
     <t xml:space="preserve">3h 10min </t>
+  </si>
+  <si>
+    <t>Recherche Google (verschiedene Suchbegriffe benutzt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alte Links durchgegangen </t>
+  </si>
+  <si>
+    <t>3h 30min</t>
+  </si>
+  <si>
+    <t>GUI mit Exit Button verbessert</t>
+  </si>
+  <si>
+    <t>veruscht einen Algorithmus zu programmieren [abgebrochen]</t>
+  </si>
+  <si>
+    <t>OpenCV Download und Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV mit Netbeans verbunden </t>
+  </si>
+  <si>
+    <t>Stundenaufzeichnung aktualiesiert und abgegeben</t>
+  </si>
+  <si>
+    <t>Auf GitHub gepusht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formular Pflichtpraktikum aktualiesiert </t>
+  </si>
+  <si>
+    <t>Eigenes Protokoll laufend aktualisiert</t>
   </si>
 </sst>
 </file>
@@ -184,19 +217,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB1898-B161-4AE1-A6EE-A75197A126A8}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,12 +564,12 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" t="s">
         <v>7</v>
       </c>
@@ -557,21 +590,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" s="10"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3" s="10"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="10"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -584,18 +617,18 @@
       <c r="I5">
         <v>50</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>44109</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="2">
         <v>0.59375</v>
       </c>
@@ -608,16 +641,16 @@
       <c r="I6">
         <v>90</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="2">
         <v>0.65625</v>
       </c>
@@ -630,16 +663,16 @@
       <c r="I7">
         <v>20</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2">
         <v>0.67013888888888884</v>
       </c>
@@ -652,16 +685,16 @@
       <c r="I8">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2">
         <v>0.68055555555555547</v>
       </c>
@@ -674,16 +707,16 @@
       <c r="I9">
         <v>15</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2">
         <v>0.69097222222222221</v>
       </c>
@@ -696,15 +729,15 @@
       <c r="I10">
         <v>5</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2">
         <v>0.69444444444444453</v>
       </c>
@@ -717,30 +750,30 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J12">
         <f>SUM(I5,I6,I7,I8,I9,I10,I11)</f>
         <v>200</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="10"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44114</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -750,15 +783,15 @@
       <c r="I14">
         <v>200</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="5">
         <v>0.6875</v>
       </c>
@@ -768,7 +801,7 @@
       <c r="I15">
         <v>165</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -778,7 +811,7 @@
       <c r="J16">
         <v>365</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -787,18 +820,18 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44115</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -808,15 +841,15 @@
       <c r="I18">
         <v>90</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -826,15 +859,15 @@
       <c r="I19">
         <v>10</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="5">
         <v>0.59027777777777779</v>
       </c>
@@ -844,7 +877,7 @@
       <c r="I20">
         <v>50</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -854,7 +887,7 @@
       <c r="J21">
         <v>150</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -863,18 +896,18 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44116</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="5">
         <v>0.55902777777777779</v>
       </c>
@@ -887,15 +920,15 @@
       <c r="I23">
         <v>95</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="5">
         <v>0.63194444444444442</v>
       </c>
@@ -908,15 +941,15 @@
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="K24" s="10"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -929,15 +962,15 @@
       <c r="I25">
         <v>15</v>
       </c>
-      <c r="K25" s="10"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="5">
         <v>0.65625</v>
       </c>
@@ -950,15 +983,15 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -971,15 +1004,15 @@
       <c r="I27">
         <v>10</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="5">
         <v>0.67013888888888884</v>
       </c>
@@ -992,15 +1025,15 @@
       <c r="I28">
         <v>5</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1013,15 +1046,15 @@
       <c r="I29">
         <v>10</v>
       </c>
-      <c r="K29" s="10"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="5">
         <v>0.68055555555555547</v>
       </c>
@@ -1034,26 +1067,242 @@
       <c r="I30">
         <v>30</v>
       </c>
-      <c r="K30" s="10"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>190</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="6" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44121</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>210</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44124</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="I38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44127</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>150</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B25:E25"/>
+  <mergeCells count="33">
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B11:E11"/>
@@ -1063,11 +1312,18 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZeitManagement_Yildirim.xlsx
+++ b/ZeitManagement_Yildirim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necati\Desktop\Praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3811D0-05C7-4502-ACD0-DF08FEB1C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057B33A-0A1E-42EE-9892-CFFFB6653B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0BE513C9-2935-4E63-92BC-EE018EA525DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Github Repository erstellt und abgegeben</t>
   </si>
@@ -168,6 +168,51 @@
   </si>
   <si>
     <t>Eigenes Protokoll laufend aktualisiert</t>
+  </si>
+  <si>
+    <t>Recherche OpenCV Algorithmus für Object Erkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Suche nach einem Algorithmmus </t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>26h</t>
+  </si>
+  <si>
+    <t>Algorithmus Netbeans kompatibel machen</t>
+  </si>
+  <si>
+    <t>Phyton Plugin Netbeans installieren und verbinden</t>
+  </si>
+  <si>
+    <t>RestService informieren und aufsetzen</t>
+  </si>
+  <si>
+    <t>JSF-Primefaces Programm erstellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSF-Primefaces studiert/recherchiert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eigenes Protokoll erweitert/dokumentiert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurzbericht erstellt und dokumentiert </t>
+  </si>
+  <si>
+    <t>Formular Praktikumsbestätigung ausgefüllt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github importiert </t>
+  </si>
+  <si>
+    <t>4h 5min</t>
+  </si>
+  <si>
+    <t>30h 5min</t>
   </si>
 </sst>
 </file>
@@ -203,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +263,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB1898-B161-4AE1-A6EE-A75197A126A8}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,16 +608,16 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" t="s">
         <v>7</v>
       </c>
@@ -588,23 +636,26 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -619,16 +670,16 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>44109</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2">
         <v>0.59375</v>
       </c>
@@ -643,14 +694,14 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="2">
         <v>0.65625</v>
       </c>
@@ -665,14 +716,14 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="2">
         <v>0.67013888888888884</v>
       </c>
@@ -687,14 +738,14 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="2">
         <v>0.68055555555555547</v>
       </c>
@@ -709,14 +760,14 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2">
         <v>0.69097222222222221</v>
       </c>
@@ -731,13 +782,13 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="2">
         <v>0.69444444444444453</v>
       </c>
@@ -752,7 +803,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12">
         <f>SUM(I5,I6,I7,I8,I9,I10,I11)</f>
         <v>200</v>
@@ -761,19 +812,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44114</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -785,13 +836,13 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5">
         <v>0.6875</v>
       </c>
@@ -803,7 +854,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -826,12 +877,12 @@
       <c r="A18" s="4">
         <v>44115</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -844,12 +895,12 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -862,12 +913,12 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="5">
         <v>0.59027777777777779</v>
       </c>
@@ -902,12 +953,12 @@
       <c r="A23" s="4">
         <v>44116</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5">
         <v>0.55902777777777779</v>
       </c>
@@ -923,12 +974,12 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5">
         <v>0.63194444444444442</v>
       </c>
@@ -944,12 +995,12 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -965,12 +1016,12 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="5">
         <v>0.65625</v>
       </c>
@@ -986,12 +1037,12 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -1007,12 +1058,12 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="5">
         <v>0.67013888888888884</v>
       </c>
@@ -1028,12 +1079,12 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1049,12 +1100,12 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5">
         <v>0.68055555555555547</v>
       </c>
@@ -1081,12 +1132,12 @@
       <c r="A33" s="4">
         <v>44121</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="5">
         <v>0.5</v>
       </c>
@@ -1098,12 +1149,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1126,12 +1177,12 @@
       <c r="A37" s="4">
         <v>44124</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="5">
         <v>0.5625</v>
       </c>
@@ -1143,12 +1194,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="5">
         <v>0.56944444444444442</v>
       </c>
@@ -1163,12 +1214,12 @@
       <c r="A39" s="4">
         <v>44127</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -1180,12 +1231,12 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -1197,12 +1248,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="5">
         <v>0.65972222222222221</v>
       </c>
@@ -1214,12 +1265,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -1231,12 +1282,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -1248,12 +1299,12 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1265,12 +1316,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="5">
         <v>0.67708333333333337</v>
       </c>
@@ -1289,20 +1340,232 @@
         <v>24</v>
       </c>
     </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44131</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I48">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44133</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="I49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="5">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="I52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44146</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="5">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="5">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="5">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="5">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>245</v>
+      </c>
+      <c r="K60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
+  <mergeCells count="44">
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
     <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B11:E11"/>
@@ -1312,18 +1575,32 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B51:E51"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZeitManagement_Yildirim.xlsx
+++ b/ZeitManagement_Yildirim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necati\Desktop\Praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057B33A-0A1E-42EE-9892-CFFFB6653B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620C008-244D-481F-9991-9334018B91BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0BE513C9-2935-4E63-92BC-EE018EA525DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Github Repository erstellt und abgegeben</t>
   </si>
@@ -213,14 +213,43 @@
   </si>
   <si>
     <t>30h 5min</t>
+  </si>
+  <si>
+    <t>Projekt-Handbuch Erstellung und Formatierung</t>
+  </si>
+  <si>
+    <t>Projekt Handbuch aktualisiert</t>
+  </si>
+  <si>
+    <t>Projektauftrags-Formular aktualisiert</t>
+  </si>
+  <si>
+    <t>Projekt auf Github raufgeladen</t>
+  </si>
+  <si>
+    <t>Zeitmanagement laufend aktualisiert</t>
+  </si>
+  <si>
+    <t>2h 55min</t>
+  </si>
+  <si>
+    <t>33h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -248,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,9 +297,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -278,6 +304,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB1898-B161-4AE1-A6EE-A75197A126A8}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,18 +636,19 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" t="s">
         <v>7</v>
       </c>
@@ -636,7 +667,7 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -650,12 +681,12 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -671,15 +702,15 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>44109</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="2">
         <v>0.59375</v>
       </c>
@@ -695,13 +726,13 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="2">
         <v>0.65625</v>
       </c>
@@ -717,13 +748,13 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2">
         <v>0.67013888888888884</v>
       </c>
@@ -739,13 +770,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2">
         <v>0.68055555555555547</v>
       </c>
@@ -761,13 +792,13 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2">
         <v>0.69097222222222221</v>
       </c>
@@ -783,12 +814,12 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2">
         <v>0.69444444444444453</v>
       </c>
@@ -819,12 +850,12 @@
       <c r="A14" s="4">
         <v>44114</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -837,12 +868,12 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="5">
         <v>0.6875</v>
       </c>
@@ -877,12 +908,12 @@
       <c r="A18" s="4">
         <v>44115</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -895,12 +926,12 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -913,12 +944,12 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="5">
         <v>0.59027777777777779</v>
       </c>
@@ -953,12 +984,12 @@
       <c r="A23" s="4">
         <v>44116</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="5">
         <v>0.55902777777777779</v>
       </c>
@@ -974,12 +1005,12 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="5">
         <v>0.63194444444444442</v>
       </c>
@@ -995,12 +1026,12 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -1016,12 +1047,12 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="5">
         <v>0.65625</v>
       </c>
@@ -1037,12 +1068,12 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -1058,12 +1089,12 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="5">
         <v>0.67013888888888884</v>
       </c>
@@ -1079,12 +1110,12 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1100,12 +1131,12 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="5">
         <v>0.68055555555555547</v>
       </c>
@@ -1132,12 +1163,12 @@
       <c r="A33" s="4">
         <v>44121</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="5">
         <v>0.5</v>
       </c>
@@ -1149,12 +1180,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1177,12 +1208,12 @@
       <c r="A37" s="4">
         <v>44124</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="5">
         <v>0.5625</v>
       </c>
@@ -1194,12 +1225,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="5">
         <v>0.56944444444444442</v>
       </c>
@@ -1214,12 +1245,12 @@
       <c r="A39" s="4">
         <v>44127</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -1231,12 +1262,12 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -1248,12 +1279,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="5">
         <v>0.65972222222222221</v>
       </c>
@@ -1265,12 +1296,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -1282,12 +1313,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -1299,12 +1330,12 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1316,12 +1347,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="5">
         <v>0.67708333333333337</v>
       </c>
@@ -1344,12 +1375,12 @@
       <c r="A48" s="4">
         <v>44131</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="5">
         <v>0.54166666666666663</v>
       </c>
@@ -1364,12 +1395,12 @@
       <c r="A49" s="4">
         <v>44133</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1381,7 +1412,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L50" t="s">
+      <c r="L50" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1389,12 +1420,12 @@
       <c r="A51" s="4">
         <v>44134</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="5">
         <v>0.65277777777777779</v>
       </c>
@@ -1406,12 +1437,12 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -1426,12 +1457,12 @@
       <c r="A53" s="4">
         <v>44146</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="5">
         <v>0.70833333333333337</v>
       </c>
@@ -1443,12 +1474,12 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="5">
         <v>0.72222222222222221</v>
       </c>
@@ -1460,12 +1491,12 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="5">
         <v>0.75694444444444453</v>
       </c>
@@ -1477,12 +1508,12 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="5">
         <v>0.88194444444444453</v>
       </c>
@@ -1494,12 +1525,12 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="5">
         <v>0.88541666666666663</v>
       </c>
@@ -1511,12 +1542,12 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="5">
         <v>0.88888888888888884</v>
       </c>
@@ -1528,12 +1559,12 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
       <c r="F59" s="5">
         <v>0.89236111111111116</v>
       </c>
@@ -1551,12 +1582,136 @@
       <c r="K60" t="s">
         <v>58</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="11" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>44151</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>44156</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="5">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="I63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>175</v>
+      </c>
+      <c r="K68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="50">
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="B58:E58"/>
@@ -1580,11 +1735,13 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B28:E28"/>
@@ -1600,8 +1757,8 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ZeitManagement_Yildirim.xlsx
+++ b/ZeitManagement_Yildirim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necati\Desktop\Praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620C008-244D-481F-9991-9334018B91BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD5CE48-36F9-4590-8FB5-9BF3F3C32087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0BE513C9-2935-4E63-92BC-EE018EA525DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Github Repository erstellt und abgegeben</t>
   </si>
@@ -234,13 +234,34 @@
   </si>
   <si>
     <t>33h</t>
+  </si>
+  <si>
+    <t>Projekt-Handbuch kontrolliert/aktualisiert</t>
+  </si>
+  <si>
+    <t>Weitere Recherche bzgl. Algorithmus</t>
+  </si>
+  <si>
+    <t>Formular Pflichtpraktikum ausgefüllt</t>
+  </si>
+  <si>
+    <t>Kurzbericht erstellt</t>
+  </si>
+  <si>
+    <t>Dateien auf Github importiert</t>
+  </si>
+  <si>
+    <t>3h 25min</t>
+  </si>
+  <si>
+    <t>36h 25min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +272,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,11 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,8 +332,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB1898-B161-4AE1-A6EE-A75197A126A8}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,39 +668,39 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="11"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -681,12 +714,12 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2">
         <v>0.55555555555555558</v>
       </c>
@@ -705,12 +738,12 @@
       <c r="A6" s="9">
         <v>44109</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2">
         <v>0.59375</v>
       </c>
@@ -727,12 +760,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="2">
         <v>0.65625</v>
       </c>
@@ -749,12 +782,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="2">
         <v>0.67013888888888884</v>
       </c>
@@ -771,12 +804,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2">
         <v>0.68055555555555547</v>
       </c>
@@ -793,12 +826,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="2">
         <v>0.69097222222222221</v>
       </c>
@@ -814,12 +847,12 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="2">
         <v>0.69444444444444453</v>
       </c>
@@ -850,12 +883,12 @@
       <c r="A14" s="4">
         <v>44114</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -868,12 +901,12 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5">
         <v>0.6875</v>
       </c>
@@ -908,12 +941,12 @@
       <c r="A18" s="4">
         <v>44115</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5">
         <v>0.52083333333333337</v>
       </c>
@@ -926,12 +959,12 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -944,12 +977,12 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5">
         <v>0.59027777777777779</v>
       </c>
@@ -984,12 +1017,12 @@
       <c r="A23" s="4">
         <v>44116</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="5">
         <v>0.55902777777777779</v>
       </c>
@@ -1005,12 +1038,12 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="5">
         <v>0.63194444444444442</v>
       </c>
@@ -1026,12 +1059,12 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -1047,12 +1080,12 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="5">
         <v>0.65625</v>
       </c>
@@ -1068,12 +1101,12 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -1089,12 +1122,12 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="5">
         <v>0.67013888888888884</v>
       </c>
@@ -1110,12 +1143,12 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1131,12 +1164,12 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="5">
         <v>0.68055555555555547</v>
       </c>
@@ -1163,12 +1196,12 @@
       <c r="A33" s="4">
         <v>44121</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="5">
         <v>0.5</v>
       </c>
@@ -1180,12 +1213,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1208,12 +1241,12 @@
       <c r="A37" s="4">
         <v>44124</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="5">
         <v>0.5625</v>
       </c>
@@ -1225,12 +1258,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="5">
         <v>0.56944444444444442</v>
       </c>
@@ -1245,12 +1278,12 @@
       <c r="A39" s="4">
         <v>44127</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -1262,12 +1295,12 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="5">
         <v>0.64583333333333337</v>
       </c>
@@ -1279,12 +1312,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="5">
         <v>0.65972222222222221</v>
       </c>
@@ -1296,12 +1329,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="5">
         <v>0.66319444444444442</v>
       </c>
@@ -1313,12 +1346,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -1330,12 +1363,12 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="5">
         <v>0.67361111111111116</v>
       </c>
@@ -1347,12 +1380,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="5">
         <v>0.67708333333333337</v>
       </c>
@@ -1375,12 +1408,12 @@
       <c r="A48" s="4">
         <v>44131</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="5">
         <v>0.54166666666666663</v>
       </c>
@@ -1395,12 +1428,12 @@
       <c r="A49" s="4">
         <v>44133</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1412,7 +1445,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1420,12 +1453,12 @@
       <c r="A51" s="4">
         <v>44134</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="5">
         <v>0.65277777777777779</v>
       </c>
@@ -1437,12 +1470,12 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -1457,12 +1490,12 @@
       <c r="A53" s="4">
         <v>44146</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="5">
         <v>0.70833333333333337</v>
       </c>
@@ -1474,12 +1507,12 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="5">
         <v>0.72222222222222221</v>
       </c>
@@ -1491,12 +1524,12 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="5">
         <v>0.75694444444444453</v>
       </c>
@@ -1508,12 +1541,12 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="5">
         <v>0.88194444444444453</v>
       </c>
@@ -1525,12 +1558,12 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="5">
         <v>0.88541666666666663</v>
       </c>
@@ -1542,12 +1575,12 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="5">
         <v>0.88888888888888884</v>
       </c>
@@ -1559,12 +1592,12 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="5">
         <v>0.89236111111111116</v>
       </c>
@@ -1582,7 +1615,7 @@
       <c r="K60" t="s">
         <v>58</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1590,12 +1623,12 @@
       <c r="A62" s="4">
         <v>44151</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -1610,12 +1643,12 @@
       <c r="A63" s="4">
         <v>44156</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="5">
         <v>0.82638888888888884</v>
       </c>
@@ -1627,12 +1660,12 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="5">
         <v>0.85069444444444453</v>
       </c>
@@ -1643,13 +1676,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="5">
         <v>0.85416666666666663</v>
       </c>
@@ -1660,13 +1693,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="5">
         <v>0.85763888888888884</v>
       </c>
@@ -1677,13 +1710,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="5">
         <v>0.86111111111111116</v>
       </c>
@@ -1694,53 +1727,162 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J68">
         <v>175</v>
       </c>
       <c r="K68" t="s">
         <v>65</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68" s="7" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="I69">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>44163</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="5">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>205</v>
+      </c>
+      <c r="K76" t="s">
+        <v>72</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B25:E25"/>
+  <mergeCells count="57">
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B53:E53"/>
@@ -1757,6 +1899,40 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
